--- a/二阶段项目/二阶段项目进度表.xlsx
+++ b/二阶段项目/二阶段项目进度表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>项目名:筷子生活研发</t>
   </si>
@@ -67,10 +67,10 @@
     <t>登录注册</t>
   </si>
   <si>
-    <t>页面搭建</t>
-  </si>
-  <si>
-    <t>房屋租售</t>
+    <t>首页推荐展示</t>
+  </si>
+  <si>
+    <t>房产模块</t>
   </si>
   <si>
     <t>前端:后台</t>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.775" defaultRowHeight="30" customHeight="1" outlineLevelCol="5"/>
@@ -1241,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -1253,7 +1253,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -1373,8 +1373,12 @@
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="9"/>
